--- a/receivers1.xlsx
+++ b/receivers1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\groupmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54062E7-1EED-47CC-932D-4FABC4B04D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBE9850-8231-4596-A078-EA7AB964B795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9DC37BF8-F72A-4524-AB59-EDE3209101B9}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>排序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>邮箱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -167,6 +163,10 @@
   </si>
   <si>
     <t>1162858631@qq.com</t>
+  </si>
+  <si>
+    <t>排名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -568,241 +568,241 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/receivers1.xlsx
+++ b/receivers1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\groupmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBE9850-8231-4596-A078-EA7AB964B795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACBD867-DF49-443F-A5E0-049D04FD638C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9DC37BF8-F72A-4524-AB59-EDE3209101B9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -54,119 +54,66 @@
     <t>刘存展2</t>
   </si>
   <si>
-    <t>1162858613@qq.com</t>
-  </si>
-  <si>
     <t>刘存展3</t>
   </si>
   <si>
-    <t>1162858614@qq.com</t>
-  </si>
-  <si>
     <t>刘存展4</t>
   </si>
   <si>
-    <t>1162858615@qq.com</t>
-  </si>
-  <si>
     <t>刘存展5</t>
   </si>
   <si>
-    <t>1162858616@qq.com</t>
-  </si>
-  <si>
     <t>刘存展6</t>
   </si>
   <si>
-    <t>1162858617@qq.com</t>
-  </si>
-  <si>
     <t>刘存展7</t>
   </si>
   <si>
-    <t>1162858618@qq.com</t>
-  </si>
-  <si>
     <t>刘存展8</t>
   </si>
   <si>
-    <t>1162858619@qq.com</t>
-  </si>
-  <si>
     <t>刘存展9</t>
   </si>
   <si>
-    <t>1162858620@qq.com</t>
-  </si>
-  <si>
     <t>刘存展10</t>
   </si>
   <si>
-    <t>1162858621@qq.com</t>
-  </si>
-  <si>
     <t>刘存展11</t>
   </si>
   <si>
-    <t>1162858622@qq.com</t>
-  </si>
-  <si>
     <t>刘存展12</t>
   </si>
   <si>
-    <t>1162858623@qq.com</t>
-  </si>
-  <si>
     <t>刘存展13</t>
   </si>
   <si>
-    <t>1162858624@qq.com</t>
-  </si>
-  <si>
     <t>刘存展14</t>
   </si>
   <si>
-    <t>1162858625@qq.com</t>
-  </si>
-  <si>
     <t>刘存展15</t>
   </si>
   <si>
-    <t>1162858626@qq.com</t>
-  </si>
-  <si>
     <t>刘存展16</t>
   </si>
   <si>
-    <t>1162858627@qq.com</t>
-  </si>
-  <si>
     <t>刘存展17</t>
   </si>
   <si>
-    <t>1162858628@qq.com</t>
-  </si>
-  <si>
     <t>刘存展18</t>
   </si>
   <si>
-    <t>1162858629@qq.com</t>
-  </si>
-  <si>
     <t>刘存展19</t>
   </si>
   <si>
-    <t>1162858630@qq.com</t>
-  </si>
-  <si>
     <t>刘存展20</t>
-  </si>
-  <si>
-    <t>1162858631@qq.com</t>
   </si>
   <si>
     <t>排名</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1162858612@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -555,7 +502,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -568,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -604,205 +551,205 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -810,25 +757,25 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{8DE22423-67E2-416E-AA23-A1E7AB74C679}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{35897BAA-C95E-4B37-AD5B-E5E693C37F7C}"/>
-    <hyperlink ref="C4" r:id="rId3" display="1162858612@qq.com" xr:uid="{1EE23D4B-CCA6-464D-B109-55983436D4D0}"/>
-    <hyperlink ref="C5" r:id="rId4" display="1162858612@qq.com" xr:uid="{CA834FC0-E004-49A7-B8BB-49889AB089FE}"/>
-    <hyperlink ref="C6" r:id="rId5" display="1162858612@qq.com" xr:uid="{A2BB2888-1591-451B-9B09-7532172C2ED0}"/>
-    <hyperlink ref="C7" r:id="rId6" display="1162858612@qq.com" xr:uid="{3395BFE9-4200-40DC-A439-E60ECDAA6311}"/>
-    <hyperlink ref="C8" r:id="rId7" display="1162858612@qq.com" xr:uid="{C6301A85-2A19-4D04-97DD-DF9A6E4A6BFC}"/>
-    <hyperlink ref="C9" r:id="rId8" display="1162858612@qq.com" xr:uid="{17BC3A71-596C-4094-9287-AB8A89B60782}"/>
-    <hyperlink ref="C10" r:id="rId9" display="1162858612@qq.com" xr:uid="{1F02167C-2DD1-4F97-998E-D0AD93D3A88E}"/>
-    <hyperlink ref="C11" r:id="rId10" display="1162858612@qq.com" xr:uid="{6113B736-629E-425F-AED8-60D5A374320C}"/>
-    <hyperlink ref="C12" r:id="rId11" display="1162858612@qq.com" xr:uid="{9676CFAD-F322-4F00-855F-A81D00A009EB}"/>
-    <hyperlink ref="C13" r:id="rId12" display="1162858612@qq.com" xr:uid="{70465457-EC4E-4C22-AEA4-BEE5D12877A6}"/>
-    <hyperlink ref="C14" r:id="rId13" display="1162858612@qq.com" xr:uid="{2A0525A6-CD57-4C3A-A2D3-A4BDFF9DB89D}"/>
-    <hyperlink ref="C15" r:id="rId14" display="1162858612@qq.com" xr:uid="{F3AD1D43-E562-4E61-BFAB-5B2CC1B8228B}"/>
-    <hyperlink ref="C16" r:id="rId15" display="1162858612@qq.com" xr:uid="{103057B5-E9A5-4245-ACBA-55D9001F9B73}"/>
-    <hyperlink ref="C17" r:id="rId16" display="1162858612@qq.com" xr:uid="{1888006A-96DE-4738-BECC-B2347741C766}"/>
-    <hyperlink ref="C18" r:id="rId17" display="1162858612@qq.com" xr:uid="{81350E24-3FA6-4AF0-BE4A-B18A2706E5DA}"/>
-    <hyperlink ref="C19" r:id="rId18" display="1162858612@qq.com" xr:uid="{A9F3565E-E27B-4CD7-AD7D-8B0DFD8D8943}"/>
-    <hyperlink ref="C20" r:id="rId19" display="1162858612@qq.com" xr:uid="{9EE715CE-F34C-4767-9CDA-A518DEBF49E1}"/>
-    <hyperlink ref="C21" r:id="rId20" display="1162858612@qq.com" xr:uid="{B14CB8D2-9866-4833-B641-88F51393C624}"/>
-    <hyperlink ref="C22" r:id="rId21" display="1162858612@qq.com" xr:uid="{C2553E1E-246A-4F85-A3B4-B6FCD0766EEE}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{1EE23D4B-CCA6-464D-B109-55983436D4D0}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{CA834FC0-E004-49A7-B8BB-49889AB089FE}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{A2BB2888-1591-451B-9B09-7532172C2ED0}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{3395BFE9-4200-40DC-A439-E60ECDAA6311}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{C6301A85-2A19-4D04-97DD-DF9A6E4A6BFC}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{17BC3A71-596C-4094-9287-AB8A89B60782}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{1F02167C-2DD1-4F97-998E-D0AD93D3A88E}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{6113B736-629E-425F-AED8-60D5A374320C}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{9676CFAD-F322-4F00-855F-A81D00A009EB}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{70465457-EC4E-4C22-AEA4-BEE5D12877A6}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{2A0525A6-CD57-4C3A-A2D3-A4BDFF9DB89D}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{F3AD1D43-E562-4E61-BFAB-5B2CC1B8228B}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{103057B5-E9A5-4245-ACBA-55D9001F9B73}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{1888006A-96DE-4738-BECC-B2347741C766}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{81350E24-3FA6-4AF0-BE4A-B18A2706E5DA}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{A9F3565E-E27B-4CD7-AD7D-8B0DFD8D8943}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{9EE715CE-F34C-4767-9CDA-A518DEBF49E1}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{B14CB8D2-9866-4833-B641-88F51393C624}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{C2553E1E-246A-4F85-A3B4-B6FCD0766EEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
